--- a/Playoff_Results.xlsx
+++ b/Playoff_Results.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="West" sheetId="1" r:id="rId1"/>
+    <sheet name="East" sheetId="1" r:id="rId1"/>
+    <sheet name="West" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>Team_Name</t>
   </si>
@@ -44,6 +45,63 @@
   </si>
   <si>
     <t>Total Points</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Southeast</t>
+  </si>
+  <si>
+    <t>East</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
@@ -106,11 +164,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +232,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -252,6 +315,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -286,6 +350,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,14 +526,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,18 +568,582 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>42817</v>
+      </c>
+      <c r="K2">
+        <v>8857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>51</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>42817</v>
+      </c>
+      <c r="K3">
+        <v>9048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>42821</v>
+      </c>
+      <c r="K4">
+        <v>8762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>42820</v>
+      </c>
+      <c r="K5">
+        <v>8953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>43</v>
+      </c>
+      <c r="F6">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>42834</v>
+      </c>
+      <c r="K6">
+        <v>8459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>42835</v>
+      </c>
+      <c r="K7">
+        <v>8497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>42837</v>
+      </c>
+      <c r="K8">
+        <v>8618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>8435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>42835</v>
+      </c>
+      <c r="K11">
+        <v>8309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>42833</v>
+      </c>
+      <c r="K12">
+        <v>8601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>51</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>42823</v>
+      </c>
+      <c r="K13">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>53</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>42822</v>
+      </c>
+      <c r="K14">
+        <v>8288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>54</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>42823</v>
+      </c>
+      <c r="K15">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>62</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>42802</v>
+      </c>
+      <c r="K16">
+        <v>8673</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>67</v>
@@ -535,18 +1167,18 @@
         <v>9503</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>61</v>
@@ -570,18 +1202,18 @@
         <v>8637</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>55</v>
@@ -605,18 +1237,18 @@
         <v>9458</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>51</v>
@@ -640,18 +1272,18 @@
         <v>8258</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>51</v>
@@ -675,18 +1307,18 @@
         <v>8911</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>47</v>
@@ -710,18 +1342,18 @@
         <v>8741</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>43</v>
@@ -745,18 +1377,18 @@
         <v>8239</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>41</v>
@@ -777,18 +1409,18 @@
         <v>8851</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E10">
         <v>40</v>
@@ -812,18 +1444,18 @@
         <v>9161</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E11">
         <v>34</v>
@@ -847,18 +1479,18 @@
         <v>8556</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>33</v>
@@ -882,18 +1514,18 @@
         <v>8029</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>32</v>
@@ -917,18 +1549,18 @@
         <v>8430</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>31</v>
@@ -952,18 +1584,18 @@
         <v>8657</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>26</v>
@@ -987,18 +1619,18 @@
         <v>8575</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>24</v>
